--- a/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/inspection.xlsx
+++ b/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/inspection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,32 @@
   </si>
   <si>
     <t>23:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点检项类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围判断</t>
+  </si>
+  <si>
+    <t>点检项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果值判断</t>
+  </si>
+  <si>
+    <t>理论值为3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断标准3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,12 +522,14 @@
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,16 +546,22 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -544,16 +578,20 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>10</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>20</v>
       </c>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -570,17 +608,54 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>20</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>30</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>"范围判断,结果值判断"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
